--- a/module_2/Lab_17_Regression-in-Excel/Task3_data.xlsx
+++ b/module_2/Lab_17_Regression-in-Excel/Task3_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tinym/Documents/IronHack/DAFT_1022/module_2/Lab_17_Regression-in-Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9FBED7-0A7A-4FA4-9872-0CAC2BA9E377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D13815-2C3F-BB40-9348-D27CC455D3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CFF555FD-70FF-4490-9EA0-5ECB52521068}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{CFF555FD-70FF-4490-9EA0-5ECB52521068}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="4" r:id="rId1"/>
@@ -28,8 +28,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,8 +48,30 @@
 </connections>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>on road old</t>
   </si>
@@ -70,18 +96,143 @@
   <si>
     <t>current price</t>
   </si>
+  <si>
+    <t>Current price is highly negatively correlated with kilometres</t>
+  </si>
+  <si>
+    <t>Current price is somewhat correlated with on road old and on road now</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95,0%</t>
+  </si>
+  <si>
+    <t>Upper 95,0%</t>
+  </si>
+  <si>
+    <t>Adjusted R-squared is a modified version of R-squared that has been adjusted for the number of predictors in the model.</t>
+  </si>
+  <si>
+    <t>The adjusted R-squared increases when the new term improves the model more than would be expected by chance. It decreases when a predictor improves the model by less than expected.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Typically, the adjusted R-squared is positive, not negative. It is always lower than the R-squared.</t>
+  </si>
+  <si>
+    <t>Our value of adj R is quite high, which indicates a very good model with good predictors.</t>
+  </si>
+  <si>
+    <t>Standard error represents the average distance that the observed values fall from the regression line</t>
+  </si>
+  <si>
+    <t>All the variables but top speed and rating seem to be significant since their p value is lower than 0.05</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF111111"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -92,7 +243,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -100,13 +251,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,16 +605,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764876B3-9D0B-4188-8A5C-3835209070E5}">
   <dimension ref="A1:H532"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A219" zoomScale="60" workbookViewId="0">
-      <selection sqref="A1:H267"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A503" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="8" max="8" width="65" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -458,7 +640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>594689</v>
       </c>
@@ -484,7 +666,7 @@
         <v>98254</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>536806</v>
       </c>
@@ -510,7 +692,7 @@
         <v>97969</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>510950</v>
       </c>
@@ -536,7 +718,7 @@
         <v>97526</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>524395</v>
       </c>
@@ -562,7 +744,7 @@
         <v>96554</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>673958</v>
       </c>
@@ -588,7 +770,7 @@
         <v>584267.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>676577</v>
       </c>
@@ -614,7 +796,7 @@
         <v>584116.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>675305</v>
       </c>
@@ -640,7 +822,7 @@
         <v>555336.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>619188</v>
       </c>
@@ -666,7 +848,7 @@
         <v>538075.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>696353</v>
       </c>
@@ -692,7 +874,7 @@
         <v>533610.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>572334</v>
       </c>
@@ -718,7 +900,7 @@
         <v>532570.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>691388</v>
       </c>
@@ -744,7 +926,7 @@
         <v>531114.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>557537</v>
       </c>
@@ -770,7 +952,7 @@
         <v>529318.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>663534</v>
       </c>
@@ -796,7 +978,7 @@
         <v>528607.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>553490</v>
       </c>
@@ -822,7 +1004,7 @@
         <v>528418.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>593508</v>
       </c>
@@ -848,7 +1030,7 @@
         <v>527409.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>614671</v>
       </c>
@@ -874,7 +1056,7 @@
         <v>526502.5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>596991</v>
       </c>
@@ -900,7 +1082,7 @@
         <v>520659.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>546188</v>
       </c>
@@ -926,7 +1108,7 @@
         <v>515722.5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>619831</v>
       </c>
@@ -952,7 +1134,7 @@
         <v>515454</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>679306</v>
       </c>
@@ -978,7 +1160,7 @@
         <v>515167.5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>696589</v>
       </c>
@@ -1004,7 +1186,7 @@
         <v>513722.5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>633227</v>
       </c>
@@ -1030,7 +1212,7 @@
         <v>512885.5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>694214</v>
       </c>
@@ -1056,7 +1238,7 @@
         <v>510361.5</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>638236</v>
       </c>
@@ -1082,7 +1264,7 @@
         <v>509506.5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>601097</v>
       </c>
@@ -1108,7 +1290,7 @@
         <v>508328.5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>684407</v>
       </c>
@@ -1134,7 +1316,7 @@
         <v>505336.5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>602529</v>
       </c>
@@ -1160,7 +1342,7 @@
         <v>505223.5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>591081</v>
       </c>
@@ -1186,7 +1368,7 @@
         <v>504643.5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>685806</v>
       </c>
@@ -1212,7 +1394,7 @@
         <v>503606.5</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>568688</v>
       </c>
@@ -1238,7 +1420,7 @@
         <v>503307.5</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>589290</v>
       </c>
@@ -1264,7 +1446,7 @@
         <v>502708.5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>697555</v>
       </c>
@@ -1290,7 +1472,7 @@
         <v>501920.5</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>508370</v>
       </c>
@@ -1316,7 +1498,7 @@
         <v>501662.5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>632159</v>
       </c>
@@ -1342,7 +1524,7 @@
         <v>501083.5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>669877</v>
       </c>
@@ -1368,7 +1550,7 @@
         <v>500679.5</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>644241</v>
       </c>
@@ -1394,7 +1576,7 @@
         <v>499185.5</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>587022</v>
       </c>
@@ -1420,7 +1602,7 @@
         <v>497572.5</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>542326</v>
       </c>
@@ -1446,7 +1628,7 @@
         <v>496293.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>664671</v>
       </c>
@@ -1472,7 +1654,7 @@
         <v>494575.5</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>567270</v>
       </c>
@@ -1498,7 +1680,7 @@
         <v>494345.5</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>681606</v>
       </c>
@@ -1524,7 +1706,7 @@
         <v>493806.5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>694439</v>
       </c>
@@ -1550,7 +1732,7 @@
         <v>492681.5</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>574756</v>
       </c>
@@ -1576,7 +1758,7 @@
         <v>490779.5</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>663651</v>
       </c>
@@ -1602,7 +1784,7 @@
         <v>490000.5</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>508009</v>
       </c>
@@ -1628,7 +1810,7 @@
         <v>486308.5</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>643744</v>
       </c>
@@ -1654,7 +1836,7 @@
         <v>484480.5</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>635177</v>
       </c>
@@ -1680,7 +1862,7 @@
         <v>483708.5</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>683410</v>
       </c>
@@ -1706,7 +1888,7 @@
         <v>483663.5</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>606327</v>
       </c>
@@ -1732,7 +1914,7 @@
         <v>482353.5</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>538205</v>
       </c>
@@ -1758,7 +1940,7 @@
         <v>479318.5</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>638318</v>
       </c>
@@ -1784,7 +1966,7 @@
         <v>476969.5</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>691280</v>
       </c>
@@ -1810,7 +1992,7 @@
         <v>476955.5</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>611299</v>
       </c>
@@ -1836,7 +2018,7 @@
         <v>475984.5</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>573022</v>
       </c>
@@ -1862,7 +2044,7 @@
         <v>475273.5</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>557635</v>
       </c>
@@ -1888,7 +2070,7 @@
         <v>475001.5</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>657738</v>
       </c>
@@ -1914,7 +2096,7 @@
         <v>474562.5</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>502932</v>
       </c>
@@ -1940,7 +2122,7 @@
         <v>474281.5</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>677183</v>
       </c>
@@ -1966,7 +2148,7 @@
         <v>472972.5</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>620611</v>
       </c>
@@ -1992,7 +2174,7 @@
         <v>471527.5</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>647888</v>
       </c>
@@ -2018,7 +2200,7 @@
         <v>470890.5</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>576623</v>
       </c>
@@ -2044,7 +2226,7 @@
         <v>469084.5</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>662990</v>
       </c>
@@ -2070,7 +2252,7 @@
         <v>467471.5</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>627569</v>
       </c>
@@ -2096,7 +2278,7 @@
         <v>467074.5</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>544374</v>
       </c>
@@ -2122,7 +2304,7 @@
         <v>465338.5</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>655171</v>
       </c>
@@ -2148,7 +2330,7 @@
         <v>464634.5</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>683685</v>
       </c>
@@ -2174,7 +2356,7 @@
         <v>463054.5</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>522705</v>
       </c>
@@ -2200,7 +2382,7 @@
         <v>462715.5</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>543184</v>
       </c>
@@ -2226,7 +2408,7 @@
         <v>462397.5</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>601439</v>
       </c>
@@ -2252,7 +2434,7 @@
         <v>461900.5</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>671630</v>
       </c>
@@ -2278,7 +2460,7 @@
         <v>460019.5</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>624535</v>
       </c>
@@ -2304,7 +2486,7 @@
         <v>459914.5</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>647956</v>
       </c>
@@ -2330,7 +2512,7 @@
         <v>459833.5</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>568580</v>
       </c>
@@ -2356,7 +2538,7 @@
         <v>459686.5</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>574876</v>
       </c>
@@ -2382,7 +2564,7 @@
         <v>458833.5</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>588392</v>
       </c>
@@ -2408,7 +2590,7 @@
         <v>458591.5</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>691841</v>
       </c>
@@ -2434,7 +2616,7 @@
         <v>458463.5</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>629587</v>
       </c>
@@ -2460,7 +2642,7 @@
         <v>457880.5</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>680056</v>
       </c>
@@ -2486,7 +2668,7 @@
         <v>456840.5</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>563396</v>
       </c>
@@ -2512,7 +2694,7 @@
         <v>456827.5</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>547423</v>
       </c>
@@ -2538,7 +2720,7 @@
         <v>456653.5</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>688314</v>
       </c>
@@ -2564,7 +2746,7 @@
         <v>456554.5</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>623825</v>
       </c>
@@ -2590,7 +2772,7 @@
         <v>456154.5</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>563886</v>
       </c>
@@ -2616,7 +2798,7 @@
         <v>455824.5</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>593981</v>
       </c>
@@ -2642,7 +2824,7 @@
         <v>454168.5</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>601674</v>
       </c>
@@ -2668,7 +2850,7 @@
         <v>453672.5</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>698719</v>
       </c>
@@ -2694,7 +2876,7 @@
         <v>451307.5</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>508356</v>
       </c>
@@ -2720,7 +2902,7 @@
         <v>451140.5</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>623158</v>
       </c>
@@ -2746,7 +2928,7 @@
         <v>450198.5</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>698222</v>
       </c>
@@ -2772,7 +2954,7 @@
         <v>448905.5</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>522640</v>
       </c>
@@ -2798,7 +2980,7 @@
         <v>448106.5</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>617887</v>
       </c>
@@ -2824,7 +3006,7 @@
         <v>446487.5</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>500921</v>
       </c>
@@ -2850,7 +3032,7 @@
         <v>446300.5</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>627403</v>
       </c>
@@ -2876,7 +3058,7 @@
         <v>443735.5</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>631367</v>
       </c>
@@ -2902,7 +3084,7 @@
         <v>441863.5</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>616371</v>
       </c>
@@ -2928,7 +3110,7 @@
         <v>441561.5</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>512638</v>
       </c>
@@ -2954,7 +3136,7 @@
         <v>441395.5</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>558107</v>
       </c>
@@ -2980,7 +3162,7 @@
         <v>440044.5</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>658059</v>
       </c>
@@ -3006,7 +3188,7 @@
         <v>439864.5</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>671058</v>
       </c>
@@ -3032,7 +3214,7 @@
         <v>439639.5</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>676306</v>
       </c>
@@ -3058,7 +3240,7 @@
         <v>438032.5</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>649156</v>
       </c>
@@ -3084,7 +3266,7 @@
         <v>437540.5</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>600109</v>
       </c>
@@ -3110,7 +3292,7 @@
         <v>437043.5</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>578908</v>
       </c>
@@ -3136,7 +3318,7 @@
         <v>435007.5</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>524904</v>
       </c>
@@ -3162,7 +3344,7 @@
         <v>434336.5</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>667370</v>
       </c>
@@ -3188,7 +3370,7 @@
         <v>433615.5</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>598099</v>
       </c>
@@ -3214,7 +3396,7 @@
         <v>432951.5</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>673122</v>
       </c>
@@ -3240,7 +3422,7 @@
         <v>432159.5</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>583113</v>
       </c>
@@ -3266,7 +3448,7 @@
         <v>430451.5</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>577540</v>
       </c>
@@ -3292,7 +3474,7 @@
         <v>429837.5</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>699714</v>
       </c>
@@ -3318,7 +3500,7 @@
         <v>428955.5</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>631154</v>
       </c>
@@ -3344,7 +3526,7 @@
         <v>428602.5</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>609622</v>
       </c>
@@ -3370,7 +3552,7 @@
         <v>427496.5</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>584786</v>
       </c>
@@ -3396,7 +3578,7 @@
         <v>427132.5</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>658355</v>
       </c>
@@ -3422,7 +3604,7 @@
         <v>426796.5</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>544189</v>
       </c>
@@ -3448,7 +3630,7 @@
         <v>426479.5</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>650757</v>
       </c>
@@ -3474,7 +3656,7 @@
         <v>425777.5</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>625785</v>
       </c>
@@ -3500,7 +3682,7 @@
         <v>425567.5</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>510675</v>
       </c>
@@ -3526,7 +3708,7 @@
         <v>425083.5</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>629254</v>
       </c>
@@ -3552,7 +3734,7 @@
         <v>424107.5</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>640397</v>
       </c>
@@ -3578,7 +3760,7 @@
         <v>423231.5</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>612406</v>
       </c>
@@ -3604,7 +3786,7 @@
         <v>422774.5</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>653099</v>
       </c>
@@ -3630,7 +3812,7 @@
         <v>422439.5</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>543821</v>
       </c>
@@ -3656,7 +3838,7 @@
         <v>421679.5</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>629451</v>
       </c>
@@ -3682,7 +3864,7 @@
         <v>421655.5</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>588202</v>
       </c>
@@ -3708,7 +3890,7 @@
         <v>420102.5</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>634648</v>
       </c>
@@ -3734,7 +3916,7 @@
         <v>420075.5</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>513242</v>
       </c>
@@ -3760,7 +3942,7 @@
         <v>418871.5</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>500265</v>
       </c>
@@ -3786,7 +3968,7 @@
         <v>417693.5</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>638714</v>
       </c>
@@ -3812,7 +3994,7 @@
         <v>415231.5</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>590105</v>
       </c>
@@ -3838,7 +4020,7 @@
         <v>414938.5</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>679088</v>
       </c>
@@ -3864,7 +4046,7 @@
         <v>413954.5</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>653978</v>
       </c>
@@ -3890,7 +4072,7 @@
         <v>413424.5</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>515637</v>
       </c>
@@ -3916,7 +4098,7 @@
         <v>412014.5</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>633344</v>
       </c>
@@ -3942,7 +4124,7 @@
         <v>410877</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>681432</v>
       </c>
@@ -3968,7 +4150,7 @@
         <v>410403.5</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>671630</v>
       </c>
@@ -3994,7 +4176,7 @@
         <v>409312.5</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>630842</v>
       </c>
@@ -4020,7 +4202,7 @@
         <v>408860.5</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>683369</v>
       </c>
@@ -4046,7 +4228,7 @@
         <v>408452.5</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>541957</v>
       </c>
@@ -4072,7 +4254,7 @@
         <v>408405.5</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>505785</v>
       </c>
@@ -4098,7 +4280,7 @@
         <v>408203.5</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>533513</v>
       </c>
@@ -4124,7 +4306,7 @@
         <v>407127.5</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>594696</v>
       </c>
@@ -4150,7 +4332,7 @@
         <v>406657.5</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>565719</v>
       </c>
@@ -4176,7 +4358,7 @@
         <v>406349.5</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>548861</v>
       </c>
@@ -4202,7 +4384,7 @@
         <v>404800.5</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>530082</v>
       </c>
@@ -4228,7 +4410,7 @@
         <v>403886.5</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>623763</v>
       </c>
@@ -4254,7 +4436,7 @@
         <v>403213.5</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>600974</v>
       </c>
@@ -4280,7 +4462,7 @@
         <v>402812.5</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>697098</v>
       </c>
@@ -4306,7 +4488,7 @@
         <v>401120.5</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>596907</v>
       </c>
@@ -4332,7 +4514,7 @@
         <v>401011.5</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>554778</v>
       </c>
@@ -4358,7 +4540,7 @@
         <v>400606.5</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>588251</v>
       </c>
@@ -4384,7 +4566,7 @@
         <v>400444.5</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>680035</v>
       </c>
@@ -4410,7 +4592,7 @@
         <v>400027.5</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>660665</v>
       </c>
@@ -4436,7 +4618,7 @@
         <v>399055.5</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>669406</v>
       </c>
@@ -4462,7 +4644,7 @@
         <v>398513.5</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>682642</v>
       </c>
@@ -4488,7 +4670,7 @@
         <v>394208.5</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>617306</v>
       </c>
@@ -4514,7 +4696,7 @@
         <v>392920.5</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>597016</v>
       </c>
@@ -4540,7 +4722,7 @@
         <v>392635.5</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>670656</v>
       </c>
@@ -4566,7 +4748,7 @@
         <v>392097.5</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>565452</v>
       </c>
@@ -4592,7 +4774,7 @@
         <v>390915.5</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>619141</v>
       </c>
@@ -4618,7 +4800,7 @@
         <v>390756.5</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>503374</v>
       </c>
@@ -4644,7 +4826,7 @@
         <v>390305.5</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>645738</v>
       </c>
@@ -4670,7 +4852,7 @@
         <v>389925.5</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>668006</v>
       </c>
@@ -4696,7 +4878,7 @@
         <v>388209.5</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>666176</v>
       </c>
@@ -4722,7 +4904,7 @@
         <v>387321.5</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>696006</v>
       </c>
@@ -4748,7 +4930,7 @@
         <v>385556.5</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>690836</v>
       </c>
@@ -4774,7 +4956,7 @@
         <v>385248.5</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>519091</v>
       </c>
@@ -4800,7 +4982,7 @@
         <v>383875.5</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>693986</v>
       </c>
@@ -4826,7 +5008,7 @@
         <v>383570.5</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>607647</v>
       </c>
@@ -4852,7 +5034,7 @@
         <v>382794.5</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>593348</v>
       </c>
@@ -4878,7 +5060,7 @@
         <v>382461.5</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>577040</v>
       </c>
@@ -4904,7 +5086,7 @@
         <v>381846.5</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>579359</v>
       </c>
@@ -4930,7 +5112,7 @@
         <v>381351.5</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>589700</v>
       </c>
@@ -4956,7 +5138,7 @@
         <v>380928.5</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>667176</v>
       </c>
@@ -4982,7 +5164,7 @@
         <v>380289.5</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>666094</v>
       </c>
@@ -5008,7 +5190,7 @@
         <v>378132.5</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>652544</v>
       </c>
@@ -5034,7 +5216,7 @@
         <v>378071.5</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>548859</v>
       </c>
@@ -5060,7 +5242,7 @@
         <v>377706.5</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>502281</v>
       </c>
@@ -5086,7 +5268,7 @@
         <v>377108.5</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>601462</v>
       </c>
@@ -5112,7 +5294,7 @@
         <v>376267.5</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>576777</v>
       </c>
@@ -5138,7 +5320,7 @@
         <v>375370.5</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>672595</v>
       </c>
@@ -5164,7 +5346,7 @@
         <v>375097.5</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>573767</v>
       </c>
@@ -5190,7 +5372,7 @@
         <v>372595.5</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>518767</v>
       </c>
@@ -5216,7 +5398,7 @@
         <v>369571.5</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>522401</v>
       </c>
@@ -5242,7 +5424,7 @@
         <v>368522.5</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>549638</v>
       </c>
@@ -5268,7 +5450,7 @@
         <v>367734.5</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>595792</v>
       </c>
@@ -5294,7 +5476,7 @@
         <v>366878.5</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>583979</v>
       </c>
@@ -5320,7 +5502,7 @@
         <v>365136.5</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>640205</v>
       </c>
@@ -5346,7 +5528,7 @@
         <v>364155.5</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>522690</v>
       </c>
@@ -5372,7 +5554,7 @@
         <v>363186.5</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>688832</v>
       </c>
@@ -5398,7 +5580,7 @@
         <v>362434.5</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>548369</v>
       </c>
@@ -5424,7 +5606,7 @@
         <v>360737.5</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>579272</v>
       </c>
@@ -5450,7 +5632,7 @@
         <v>360647.5</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>545595</v>
       </c>
@@ -5476,7 +5658,7 @@
         <v>356606.5</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>647470</v>
       </c>
@@ -5502,7 +5684,7 @@
         <v>354409.5</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>580419</v>
       </c>
@@ -5528,7 +5710,7 @@
         <v>352318.5</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>616026</v>
       </c>
@@ -5554,7 +5736,7 @@
         <v>352284.5</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>621793</v>
       </c>
@@ -5580,7 +5762,7 @@
         <v>351704.5</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>535651</v>
       </c>
@@ -5606,7 +5788,7 @@
         <v>351318</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>527637</v>
       </c>
@@ -5632,7 +5814,7 @@
         <v>351201.5</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>534765</v>
       </c>
@@ -5658,7 +5840,7 @@
         <v>350647.5</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>519972</v>
       </c>
@@ -5684,7 +5866,7 @@
         <v>347784.5</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>585809</v>
       </c>
@@ -5710,7 +5892,7 @@
         <v>344820.5</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>631301</v>
       </c>
@@ -5736,7 +5918,7 @@
         <v>344405.5</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>596236</v>
       </c>
@@ -5762,7 +5944,7 @@
         <v>344339.5</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>620963</v>
       </c>
@@ -5788,7 +5970,7 @@
         <v>343416.5</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>539063</v>
       </c>
@@ -5814,7 +5996,7 @@
         <v>340961.5</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>552852</v>
       </c>
@@ -5840,7 +6022,7 @@
         <v>340429.5</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>520571</v>
       </c>
@@ -5866,7 +6048,7 @@
         <v>339335.5</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>530050</v>
       </c>
@@ -5892,7 +6074,7 @@
         <v>338141.5</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>577821</v>
       </c>
@@ -5918,7 +6100,7 @@
         <v>336181.5</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>694702</v>
       </c>
@@ -5944,7 +6126,7 @@
         <v>335093.5</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>571728</v>
       </c>
@@ -5970,7 +6152,7 @@
         <v>333655.5</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>605017</v>
       </c>
@@ -5996,7 +6178,7 @@
         <v>333091.5</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>598876</v>
       </c>
@@ -6022,7 +6204,7 @@
         <v>332478.5</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>507001</v>
       </c>
@@ -6048,7 +6230,7 @@
         <v>331819.5</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>636134</v>
       </c>
@@ -6074,7 +6256,7 @@
         <v>331263.5</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>529515</v>
       </c>
@@ -6100,7 +6282,7 @@
         <v>330908.5</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>612101</v>
       </c>
@@ -6126,7 +6308,7 @@
         <v>330281.5</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>689781</v>
       </c>
@@ -6152,7 +6334,7 @@
         <v>329538.5</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>551204</v>
       </c>
@@ -6178,7 +6360,7 @@
         <v>328973.5</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>503856</v>
       </c>
@@ -6204,7 +6386,7 @@
         <v>327454.5</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>572777</v>
       </c>
@@ -6230,7 +6412,7 @@
         <v>327075.5</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>568150</v>
       </c>
@@ -6256,7 +6438,7 @@
         <v>326161.5</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>528703</v>
       </c>
@@ -6282,7 +6464,7 @@
         <v>324899.5</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>523291</v>
       </c>
@@ -6308,7 +6490,7 @@
         <v>322951.5</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>531988</v>
       </c>
@@ -6334,7 +6516,7 @@
         <v>320391.5</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>589508</v>
       </c>
@@ -6360,7 +6542,7 @@
         <v>317681.5</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>676638</v>
       </c>
@@ -6386,7 +6568,7 @@
         <v>317168.5</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>656130</v>
       </c>
@@ -6412,7 +6594,7 @@
         <v>316827.5</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>593197</v>
       </c>
@@ -6438,7 +6620,7 @@
         <v>316387.5</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>553351</v>
       </c>
@@ -6464,7 +6646,7 @@
         <v>315914.5</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>650030</v>
       </c>
@@ -6490,7 +6672,7 @@
         <v>315866.5</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>511487</v>
       </c>
@@ -6516,7 +6698,7 @@
         <v>315841.5</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>623187</v>
       </c>
@@ -6542,7 +6724,7 @@
         <v>315542.5</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>669082</v>
       </c>
@@ -6568,7 +6750,7 @@
         <v>315403.5</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>629323</v>
       </c>
@@ -6594,7 +6776,7 @@
         <v>315131.5</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>546807</v>
       </c>
@@ -6620,7 +6802,7 @@
         <v>314576.5</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>691381</v>
       </c>
@@ -6646,7 +6828,7 @@
         <v>314523.5</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>532232</v>
       </c>
@@ -6672,7 +6854,7 @@
         <v>313619.5</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>659247</v>
       </c>
@@ -6698,7 +6880,7 @@
         <v>313095.5</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>509826</v>
       </c>
@@ -6724,7 +6906,7 @@
         <v>313049.5</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>506701</v>
       </c>
@@ -6750,7 +6932,7 @@
         <v>312454.5</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>623627</v>
       </c>
@@ -6776,7 +6958,7 @@
         <v>312323.5</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>542995</v>
       </c>
@@ -6802,7 +6984,7 @@
         <v>312164.5</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>658016</v>
       </c>
@@ -6828,7 +7010,7 @@
         <v>311773.5</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>617893</v>
       </c>
@@ -6854,7 +7036,7 @@
         <v>308643.5</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>616858</v>
       </c>
@@ -6880,7 +7062,7 @@
         <v>308376.5</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>509560</v>
       </c>
@@ -6906,7 +7088,7 @@
         <v>308220.5</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>551965</v>
       </c>
@@ -6932,7 +7114,7 @@
         <v>307770.5</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>640187</v>
       </c>
@@ -6958,7 +7140,7 @@
         <v>306982.5</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>543149</v>
       </c>
@@ -6984,7 +7166,7 @@
         <v>306745.5</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>512111</v>
       </c>
@@ -7010,7 +7192,7 @@
         <v>305652.5</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>570570</v>
       </c>
@@ -7036,7 +7218,7 @@
         <v>305002.5</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>639010</v>
       </c>
@@ -7062,7 +7244,7 @@
         <v>304923.5</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>685935</v>
       </c>
@@ -7088,7 +7270,7 @@
         <v>304216.5</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>655721</v>
       </c>
@@ -7114,7 +7296,7 @@
         <v>304104.5</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>629081</v>
       </c>
@@ -7140,7 +7322,7 @@
         <v>303506.5</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>653115</v>
       </c>
@@ -7166,7 +7348,7 @@
         <v>302929.5</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>517894</v>
       </c>
@@ -7192,7 +7374,7 @@
         <v>302878.5</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>611487</v>
       </c>
@@ -7218,7 +7400,7 @@
         <v>302011.5</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>569576</v>
       </c>
@@ -7244,7 +7426,7 @@
         <v>301081.5</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>585740</v>
       </c>
@@ -7270,7 +7452,7 @@
         <v>301042.5</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>591834</v>
       </c>
@@ -7296,7 +7478,7 @@
         <v>300499.5</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>661284</v>
       </c>
@@ -7322,7 +7504,7 @@
         <v>299129.5</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>632262</v>
       </c>
@@ -7348,7 +7530,7 @@
         <v>299019.5</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>537109</v>
       </c>
@@ -7374,7 +7556,7 @@
         <v>296565.5</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>634234</v>
       </c>
@@ -7400,7 +7582,7 @@
         <v>295553.5</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>555055</v>
       </c>
@@ -7426,7 +7608,7 @@
         <v>295406.5</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>589240</v>
       </c>
@@ -7452,7 +7634,7 @@
         <v>294502.5</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>534796</v>
       </c>
@@ -7478,7 +7660,7 @@
         <v>294378.5</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>645596</v>
       </c>
@@ -7504,7 +7686,7 @@
         <v>293875.5</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>637577</v>
       </c>
@@ -7530,7 +7712,7 @@
         <v>293424.5</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>568614</v>
       </c>
@@ -7556,7 +7738,7 @@
         <v>292520.5</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>669458</v>
       </c>
@@ -7582,7 +7764,7 @@
         <v>292308.5</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>557699</v>
       </c>
@@ -7608,7 +7790,7 @@
         <v>291815.5</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>634647</v>
       </c>
@@ -7634,7 +7816,7 @@
         <v>291776.5</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>503327</v>
       </c>
@@ -7660,7 +7842,7 @@
         <v>291031.5</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>638462</v>
       </c>
@@ -7686,7 +7868,7 @@
         <v>289570.5</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>634610</v>
       </c>
@@ -7712,7 +7894,7 @@
         <v>289049.5</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>687237</v>
       </c>
@@ -7738,7 +7920,7 @@
         <v>288556.5</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>566392</v>
       </c>
@@ -7764,7 +7946,7 @@
         <v>287588.5</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>652922</v>
       </c>
@@ -7790,7 +7972,7 @@
         <v>287093.5</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>587138</v>
       </c>
@@ -7816,7 +7998,7 @@
         <v>286937.5</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>591911</v>
       </c>
@@ -7842,7 +8024,7 @@
         <v>285001.5</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>663565</v>
       </c>
@@ -7868,7 +8050,7 @@
         <v>284727.5</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>631148</v>
       </c>
@@ -7894,7 +8076,7 @@
         <v>284462.5</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>523773</v>
       </c>
@@ -7920,7 +8102,7 @@
         <v>284094.5</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>651702</v>
       </c>
@@ -7946,7 +8128,7 @@
         <v>283435.5</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>542761</v>
       </c>
@@ -7972,7 +8154,7 @@
         <v>282821.5</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>637691</v>
       </c>
@@ -7998,7 +8180,7 @@
         <v>282496.5</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>504448</v>
       </c>
@@ -8024,7 +8206,7 @@
         <v>282418.5</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>536149</v>
       </c>
@@ -8050,7 +8232,7 @@
         <v>281037.5</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>528409</v>
       </c>
@@ -8076,7 +8258,7 @@
         <v>279833.5</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>670488</v>
       </c>
@@ -8102,7 +8284,7 @@
         <v>278993.5</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>541483</v>
       </c>
@@ -8128,7 +8310,7 @@
         <v>278759.5</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>650901</v>
       </c>
@@ -8154,7 +8336,7 @@
         <v>276960.5</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>697488</v>
       </c>
@@ -8180,7 +8362,7 @@
         <v>276805.5</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>699023</v>
       </c>
@@ -8206,7 +8388,7 @@
         <v>275837.5</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>658253</v>
       </c>
@@ -8232,7 +8414,7 @@
         <v>275045.5</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>592277</v>
       </c>
@@ -8258,7 +8440,7 @@
         <v>274453.5</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>583560</v>
       </c>
@@ -8284,7 +8466,7 @@
         <v>274357.5</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>685511</v>
       </c>
@@ -8310,7 +8492,7 @@
         <v>273674.5</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>546978</v>
       </c>
@@ -8336,7 +8518,7 @@
         <v>273659.5</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>662770</v>
       </c>
@@ -8362,7 +8544,7 @@
         <v>272816.5</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>565576</v>
       </c>
@@ -8388,7 +8570,7 @@
         <v>272437.5</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>624078</v>
       </c>
@@ -8414,7 +8596,7 @@
         <v>271010.5</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>658513</v>
       </c>
@@ -8440,7 +8622,7 @@
         <v>269532.5</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>621407</v>
       </c>
@@ -8466,7 +8648,7 @@
         <v>268200.5</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>648198</v>
       </c>
@@ -8492,7 +8674,7 @@
         <v>267953.5</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>650490</v>
       </c>
@@ -8518,7 +8700,7 @@
         <v>266983.5</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>616528</v>
       </c>
@@ -8544,7 +8726,7 @@
         <v>265799.5</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>668839</v>
       </c>
@@ -8570,7 +8752,7 @@
         <v>264576.5</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>629149</v>
       </c>
@@ -8596,7 +8778,7 @@
         <v>264084.5</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>557000</v>
       </c>
@@ -8622,7 +8804,7 @@
         <v>262126.5</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>622089</v>
       </c>
@@ -8648,7 +8830,7 @@
         <v>258268.5</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>620214</v>
       </c>
@@ -8674,7 +8856,7 @@
         <v>257565.5</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>543337</v>
       </c>
@@ -8700,7 +8882,7 @@
         <v>256476.5</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>675812</v>
       </c>
@@ -8726,7 +8908,7 @@
         <v>256331.5</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>645485</v>
       </c>
@@ -8752,7 +8934,7 @@
         <v>255901.5</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>505728</v>
       </c>
@@ -8778,7 +8960,7 @@
         <v>253853.5</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>537143</v>
       </c>
@@ -8804,7 +8986,7 @@
         <v>253530.5</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>570874</v>
       </c>
@@ -8830,7 +9012,7 @@
         <v>253476.5</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>633666</v>
       </c>
@@ -8856,7 +9038,7 @@
         <v>252549.5</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>580102</v>
       </c>
@@ -8882,7 +9064,7 @@
         <v>251317.5</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>545000</v>
       </c>
@@ -8908,7 +9090,7 @@
         <v>250309.5</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>545669</v>
       </c>
@@ -8934,7 +9116,7 @@
         <v>249765.5</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>600989</v>
       </c>
@@ -8960,7 +9142,7 @@
         <v>248248.5</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>633523</v>
       </c>
@@ -8986,7 +9168,7 @@
         <v>248119.5</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>657060</v>
       </c>
@@ -9012,7 +9194,7 @@
         <v>247277.5</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>695207</v>
       </c>
@@ -9038,7 +9220,7 @@
         <v>245854.5</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>592383</v>
       </c>
@@ -9064,7 +9246,7 @@
         <v>245594.5</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>573999</v>
       </c>
@@ -9090,7 +9272,7 @@
         <v>244295.5</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>533865</v>
       </c>
@@ -9116,7 +9298,7 @@
         <v>244287.5</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>599401</v>
       </c>
@@ -9142,7 +9324,7 @@
         <v>243565.5</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>581130</v>
       </c>
@@ -9168,7 +9350,7 @@
         <v>243549.5</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>570018</v>
       </c>
@@ -9194,7 +9376,7 @@
         <v>243006.5</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>508483</v>
       </c>
@@ -9220,7 +9402,7 @@
         <v>242709.5</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>699859</v>
       </c>
@@ -9246,7 +9428,7 @@
         <v>242273.5</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>602722</v>
       </c>
@@ -9272,7 +9454,7 @@
         <v>242173.5</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>588507</v>
       </c>
@@ -9298,7 +9480,7 @@
         <v>241487.5</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>553494</v>
       </c>
@@ -9324,7 +9506,7 @@
         <v>240353.5</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>546458</v>
       </c>
@@ -9350,7 +9532,7 @@
         <v>240296.5</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>614542</v>
       </c>
@@ -9376,7 +9558,7 @@
         <v>239815.5</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>685661</v>
       </c>
@@ -9402,7 +9584,7 @@
         <v>238638.5</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>546212</v>
       </c>
@@ -9428,7 +9610,7 @@
         <v>235251.5</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>505023</v>
       </c>
@@ -9454,7 +9636,7 @@
         <v>234835.5</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>516828</v>
       </c>
@@ -9480,7 +9662,7 @@
         <v>234142.5</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>506146</v>
       </c>
@@ -9506,7 +9688,7 @@
         <v>232826.5</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>687246</v>
       </c>
@@ -9532,7 +9714,7 @@
         <v>232718.5</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>545819</v>
       </c>
@@ -9558,7 +9740,7 @@
         <v>232526.5</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>547027</v>
       </c>
@@ -9584,7 +9766,7 @@
         <v>231291.5</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>684369</v>
       </c>
@@ -9610,7 +9792,7 @@
         <v>230428.5</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>624057</v>
       </c>
@@ -9636,7 +9818,7 @@
         <v>230090.5</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>556014</v>
       </c>
@@ -9662,7 +9844,7 @@
         <v>229749.5</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>662468</v>
       </c>
@@ -9688,7 +9870,7 @@
         <v>228892.5</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>533969</v>
       </c>
@@ -9714,7 +9896,7 @@
         <v>228875.5</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>536331</v>
       </c>
@@ -9740,7 +9922,7 @@
         <v>227845.5</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>676112</v>
       </c>
@@ -9766,7 +9948,7 @@
         <v>226087.5</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>512510</v>
       </c>
@@ -9792,7 +9974,7 @@
         <v>225669.5</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>661027</v>
       </c>
@@ -9818,7 +10000,7 @@
         <v>224958.5</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>632794</v>
       </c>
@@ -9844,7 +10026,7 @@
         <v>224533.5</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>524970</v>
       </c>
@@ -9870,7 +10052,7 @@
         <v>224359.5</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>661147</v>
       </c>
@@ -9896,7 +10078,7 @@
         <v>223778.5</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>521859</v>
       </c>
@@ -9922,7 +10104,7 @@
         <v>223594.5</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>615930</v>
       </c>
@@ -9948,7 +10130,7 @@
         <v>223369.5</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>510141</v>
       </c>
@@ -9974,7 +10156,7 @@
         <v>222063.5</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>579669</v>
       </c>
@@ -10000,7 +10182,7 @@
         <v>221972.5</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>576412</v>
       </c>
@@ -10026,7 +10208,7 @@
         <v>221412.5</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>537738</v>
       </c>
@@ -10052,7 +10234,7 @@
         <v>221132.5</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>549326</v>
       </c>
@@ -10078,7 +10260,7 @@
         <v>219462.5</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>695972</v>
       </c>
@@ -10104,7 +10286,7 @@
         <v>218983.5</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>609167</v>
       </c>
@@ -10130,7 +10312,7 @@
         <v>218665.5</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>501569</v>
       </c>
@@ -10156,7 +10338,7 @@
         <v>216831.5</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>511005</v>
       </c>
@@ -10182,7 +10364,7 @@
         <v>215633.5</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>686990</v>
       </c>
@@ -10208,7 +10390,7 @@
         <v>215386</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>698493</v>
       </c>
@@ -10234,7 +10416,7 @@
         <v>213768.5</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>587327</v>
       </c>
@@ -10260,7 +10442,7 @@
         <v>212553.5</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>589273</v>
       </c>
@@ -10286,7 +10468,7 @@
         <v>212546.5</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>541464</v>
       </c>
@@ -10312,7 +10494,7 @@
         <v>211528.5</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>576916</v>
       </c>
@@ -10338,7 +10520,7 @@
         <v>210777.5</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>556598</v>
       </c>
@@ -10364,7 +10546,7 @@
         <v>210661.5</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>643044</v>
       </c>
@@ -10390,7 +10572,7 @@
         <v>208573.5</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>513645</v>
       </c>
@@ -10416,7 +10598,7 @@
         <v>208189.5</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>552280</v>
       </c>
@@ -10442,7 +10624,7 @@
         <v>207480.5</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>625747</v>
       </c>
@@ -10468,7 +10650,7 @@
         <v>207352.5</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>635763</v>
       </c>
@@ -10494,7 +10676,7 @@
         <v>206999.5</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>668817</v>
       </c>
@@ -10520,7 +10702,7 @@
         <v>206883.5</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>573279</v>
       </c>
@@ -10546,7 +10728,7 @@
         <v>206836.5</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>598889</v>
       </c>
@@ -10572,7 +10754,7 @@
         <v>206335.5</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>621011</v>
       </c>
@@ -10598,7 +10780,7 @@
         <v>206296.5</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>674051</v>
       </c>
@@ -10624,7 +10806,7 @@
         <v>205716.5</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>507180</v>
       </c>
@@ -10650,7 +10832,7 @@
         <v>204833.5</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>617740</v>
       </c>
@@ -10676,7 +10858,7 @@
         <v>203811.5</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>530907</v>
       </c>
@@ -10702,7 +10884,7 @@
         <v>202883.5</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>572446</v>
       </c>
@@ -10728,7 +10910,7 @@
         <v>201188.5</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>598238</v>
       </c>
@@ -10754,7 +10936,7 @@
         <v>200794.5</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>603780</v>
       </c>
@@ -10780,7 +10962,7 @@
         <v>200408.5</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>655253</v>
       </c>
@@ -10806,7 +10988,7 @@
         <v>199313.5</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>650874</v>
       </c>
@@ -10832,7 +11014,7 @@
         <v>198511.5</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>601147</v>
       </c>
@@ -10858,7 +11040,7 @@
         <v>197714.5</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>614503</v>
       </c>
@@ -10884,7 +11066,7 @@
         <v>197430.5</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>547769</v>
       </c>
@@ -10910,7 +11092,7 @@
         <v>197377.5</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>573043</v>
       </c>
@@ -10936,7 +11118,7 @@
         <v>197266</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>642521</v>
       </c>
@@ -10962,7 +11144,7 @@
         <v>196639.5</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>607575</v>
       </c>
@@ -10988,7 +11170,7 @@
         <v>192853.5</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>554382</v>
       </c>
@@ -11014,7 +11196,7 @@
         <v>190956.5</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>591763</v>
       </c>
@@ -11040,7 +11222,7 @@
         <v>188582</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>506788</v>
       </c>
@@ -11066,7 +11248,7 @@
         <v>188131.5</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>656169</v>
       </c>
@@ -11092,7 +11274,7 @@
         <v>186388.5</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>691439</v>
       </c>
@@ -11118,7 +11300,7 @@
         <v>186356.5</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>663877</v>
       </c>
@@ -11144,7 +11326,7 @@
         <v>185485.5</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>678056</v>
       </c>
@@ -11170,7 +11352,7 @@
         <v>184900.5</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>520307</v>
       </c>
@@ -11196,7 +11378,7 @@
         <v>184092.5</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>576829</v>
       </c>
@@ -11222,7 +11404,7 @@
         <v>183833.5</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>569918</v>
       </c>
@@ -11248,7 +11430,7 @@
         <v>183465.5</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>561292</v>
       </c>
@@ -11274,7 +11456,7 @@
         <v>182219.5</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>520389</v>
       </c>
@@ -11300,7 +11482,7 @@
         <v>181428.5</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>582950</v>
       </c>
@@ -11326,7 +11508,7 @@
         <v>181414.5</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>624433</v>
       </c>
@@ -11352,7 +11534,7 @@
         <v>180891.5</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>654498</v>
       </c>
@@ -11378,7 +11560,7 @@
         <v>180476.5</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>546523</v>
       </c>
@@ -11404,7 +11586,7 @@
         <v>180368.5</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>506504</v>
       </c>
@@ -11430,7 +11612,7 @@
         <v>179711.5</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>647422</v>
       </c>
@@ -11456,7 +11638,7 @@
         <v>178991.5</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>640520</v>
       </c>
@@ -11482,7 +11664,7 @@
         <v>178642.5</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>511480</v>
       </c>
@@ -11508,7 +11690,7 @@
         <v>178180.5</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>650007</v>
       </c>
@@ -11534,7 +11716,7 @@
         <v>177933.5</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>697680</v>
       </c>
@@ -11560,7 +11742,7 @@
         <v>177748.5</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>509580</v>
       </c>
@@ -11586,7 +11768,7 @@
         <v>177509.5</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>568040</v>
       </c>
@@ -11612,7 +11794,7 @@
         <v>175102.5</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>557758</v>
       </c>
@@ -11638,7 +11820,7 @@
         <v>175012.5</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>633198</v>
       </c>
@@ -11664,7 +11846,7 @@
         <v>174352.5</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>622660</v>
       </c>
@@ -11690,7 +11872,7 @@
         <v>172859.5</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>542393</v>
       </c>
@@ -11716,7 +11898,7 @@
         <v>172758.5</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>591776</v>
       </c>
@@ -11742,7 +11924,7 @@
         <v>172234.5</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>630266</v>
       </c>
@@ -11768,7 +11950,7 @@
         <v>172032.5</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>610246</v>
       </c>
@@ -11794,7 +11976,7 @@
         <v>170960.5</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>536280</v>
       </c>
@@ -11820,7 +12002,7 @@
         <v>170838.5</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>698284</v>
       </c>
@@ -11846,7 +12028,7 @@
         <v>170104.5</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>525901</v>
       </c>
@@ -11872,7 +12054,7 @@
         <v>169674.5</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>636153</v>
       </c>
@@ -11898,7 +12080,7 @@
         <v>169125.5</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>574353</v>
       </c>
@@ -11924,7 +12106,7 @@
         <v>168940.5</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>507983</v>
       </c>
@@ -11950,7 +12132,7 @@
         <v>168854.5</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>684983</v>
       </c>
@@ -11976,7 +12158,7 @@
         <v>167978.5</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>521447</v>
       </c>
@@ -12002,7 +12184,7 @@
         <v>167281.5</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>625048</v>
       </c>
@@ -12028,7 +12210,7 @@
         <v>165741.5</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>616223</v>
       </c>
@@ -12054,7 +12236,7 @@
         <v>164649.5</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>647221</v>
       </c>
@@ -12080,7 +12262,7 @@
         <v>160597.5</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>670970</v>
       </c>
@@ -12106,7 +12288,7 @@
         <v>160150.5</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>662454</v>
       </c>
@@ -12132,7 +12314,7 @@
         <v>159614.5</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>552309</v>
       </c>
@@ -12158,7 +12340,7 @@
         <v>159309.5</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>523637</v>
       </c>
@@ -12184,7 +12366,7 @@
         <v>158951.5</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>650744</v>
       </c>
@@ -12210,7 +12392,7 @@
         <v>158741.5</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>636955</v>
       </c>
@@ -12236,7 +12418,7 @@
         <v>158250.5</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>524473</v>
       </c>
@@ -12262,7 +12444,7 @@
         <v>158031.5</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>617090</v>
       </c>
@@ -12288,7 +12470,7 @@
         <v>156825.5</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>542170</v>
       </c>
@@ -12314,7 +12496,7 @@
         <v>153381.5</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>642181</v>
       </c>
@@ -12340,7 +12522,7 @@
         <v>153375.5</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>659900</v>
       </c>
@@ -12366,7 +12548,7 @@
         <v>153371.5</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>679527</v>
       </c>
@@ -12392,7 +12574,7 @@
         <v>152879.5</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>561891</v>
       </c>
@@ -12418,7 +12600,7 @@
         <v>152125.5</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>502131</v>
       </c>
@@ -12444,7 +12626,7 @@
         <v>151836.5</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>682076</v>
       </c>
@@ -12470,7 +12652,7 @@
         <v>151080.5</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>637719</v>
       </c>
@@ -12496,7 +12678,7 @@
         <v>150234.5</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>583537</v>
       </c>
@@ -12522,7 +12704,7 @@
         <v>149899.5</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>592057</v>
       </c>
@@ -12548,7 +12730,7 @@
         <v>149141.5</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>620996</v>
       </c>
@@ -12574,7 +12756,7 @@
         <v>148734.5</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>661301</v>
       </c>
@@ -12600,7 +12782,7 @@
         <v>145898.5</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>593544</v>
       </c>
@@ -12626,7 +12808,7 @@
         <v>145880.5</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>547286</v>
       </c>
@@ -12652,7 +12834,7 @@
         <v>144272.5</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>586019</v>
       </c>
@@ -12678,7 +12860,7 @@
         <v>144191.5</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>582475</v>
       </c>
@@ -12704,7 +12886,7 @@
         <v>141833.5</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>642206</v>
       </c>
@@ -12730,7 +12912,7 @@
         <v>140798.5</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>616614</v>
       </c>
@@ -12756,7 +12938,7 @@
         <v>140796.5</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>519144</v>
       </c>
@@ -12782,7 +12964,7 @@
         <v>140216.5</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>577168</v>
       </c>
@@ -12808,7 +12990,7 @@
         <v>140061.5</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>674940</v>
       </c>
@@ -12834,7 +13016,7 @@
         <v>137169.5</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>696090</v>
       </c>
@@ -12860,7 +13042,7 @@
         <v>136824.5</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>657245</v>
       </c>
@@ -12886,7 +13068,7 @@
         <v>133006.5</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>567129</v>
       </c>
@@ -12912,7 +13094,7 @@
         <v>132026.5</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>628266</v>
       </c>
@@ -12938,7 +13120,7 @@
         <v>131893.5</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>531436</v>
       </c>
@@ -12964,7 +13146,7 @@
         <v>130233.5</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>564077</v>
       </c>
@@ -12990,7 +13172,7 @@
         <v>130112.5</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>640509</v>
       </c>
@@ -13016,7 +13198,7 @@
         <v>128632.5</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>663985</v>
       </c>
@@ -13042,7 +13224,7 @@
         <v>128489.5</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>648262</v>
       </c>
@@ -13068,7 +13250,7 @@
         <v>126957.5</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>532317</v>
       </c>
@@ -13094,7 +13276,7 @@
         <v>126791.5</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>503255</v>
       </c>
@@ -13120,7 +13302,7 @@
         <v>126070.5</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>590078</v>
       </c>
@@ -13146,7 +13328,7 @@
         <v>125721.5</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>572094</v>
       </c>
@@ -13172,7 +13354,7 @@
         <v>124847.5</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>542922</v>
       </c>
@@ -13198,7 +13380,7 @@
         <v>124183.5</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>516722</v>
       </c>
@@ -13224,7 +13406,7 @@
         <v>123719.5</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>631967</v>
       </c>
@@ -13250,7 +13432,7 @@
         <v>122843.5</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>673588</v>
       </c>
@@ -13276,7 +13458,7 @@
         <v>122567.5</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>529761</v>
       </c>
@@ -13302,7 +13484,7 @@
         <v>122225.5</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>554928</v>
       </c>
@@ -13328,7 +13510,7 @@
         <v>122139.5</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>565310</v>
       </c>
@@ -13354,7 +13536,7 @@
         <v>120869.5</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>565733</v>
       </c>
@@ -13380,7 +13562,7 @@
         <v>120583.5</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>588774</v>
       </c>
@@ -13406,7 +13588,7 @@
         <v>120092.5</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>563132</v>
       </c>
@@ -13432,7 +13614,7 @@
         <v>118348.5</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>558209</v>
       </c>
@@ -13458,7 +13640,7 @@
         <v>116254.5</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>587586</v>
       </c>
@@ -13484,7 +13666,7 @@
         <v>115462.5</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>560976</v>
       </c>
@@ -13510,7 +13692,7 @@
         <v>112864.5</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>648791</v>
       </c>
@@ -13536,7 +13718,7 @@
         <v>111175.5</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>575187</v>
       </c>
@@ -13562,7 +13744,7 @@
         <v>110883.5</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>512312</v>
       </c>
@@ -13588,7 +13770,7 @@
         <v>110359.5</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>600416</v>
       </c>
@@ -13614,7 +13796,7 @@
         <v>110229.5</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>581950</v>
       </c>
@@ -13640,7 +13822,7 @@
         <v>110021.5</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>514779</v>
       </c>
@@ -13666,7 +13848,7 @@
         <v>109828.5</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>568395</v>
       </c>
@@ -13692,7 +13874,7 @@
         <v>108921.5</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>553776</v>
       </c>
@@ -13718,7 +13900,7 @@
         <v>108223.5</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>620809</v>
       </c>
@@ -13744,7 +13926,7 @@
         <v>107500.5</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>529187</v>
       </c>
@@ -13770,7 +13952,7 @@
         <v>107147.5</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>527694</v>
       </c>
@@ -13796,7 +13978,7 @@
         <v>105427.5</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>602737</v>
       </c>
@@ -13822,7 +14004,7 @@
         <v>103742.5</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>579087</v>
       </c>
@@ -13848,7 +14030,7 @@
         <v>102144.5</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>646220</v>
       </c>
@@ -13874,7 +14056,7 @@
         <v>98489.5</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>675458</v>
       </c>
@@ -13900,7 +14082,7 @@
         <v>98311.5</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>521785</v>
       </c>
@@ -13926,7 +14108,7 @@
         <v>98242.5</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>533558</v>
       </c>
@@ -13952,7 +14134,7 @@
         <v>97280.5</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>534259</v>
       </c>
@@ -13978,7 +14160,7 @@
         <v>95533.5</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>641477</v>
       </c>
@@ -14004,7 +14186,7 @@
         <v>94467.5</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>501908</v>
       </c>
@@ -14030,7 +14212,7 @@
         <v>93190.5</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>516158</v>
       </c>
@@ -14056,7 +14238,7 @@
         <v>87234.5</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>568019</v>
       </c>
@@ -14082,7 +14264,7 @@
         <v>81507.5</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>644771</v>
       </c>
@@ -14108,7 +14290,7 @@
         <v>78924.5</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>520244</v>
       </c>
@@ -14134,7 +14316,7 @@
         <v>69231.5</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>513733</v>
       </c>
@@ -14160,7 +14342,7 @@
         <v>65467.5</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>528256</v>
       </c>
@@ -14186,7 +14368,7 @@
         <v>61928.5</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>506115</v>
       </c>
@@ -14212,7 +14394,7 @@
         <v>53470.5</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>553193</v>
       </c>
@@ -14238,7 +14420,7 @@
         <v>46920.5</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>509814</v>
       </c>
@@ -14277,14 +14459,275 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4878D4D6-4B8F-4058-A30C-3BD88E2F6AD3}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:I15"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView view="pageBreakPreview" zoomScale="141" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="str" cm="1">
+        <f t="array" ref="A4:A11">TRANSPOSE(B3:I3)</f>
+        <v>on road old</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="str">
+        <v>on road now</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2.7494255697741513E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="str">
+        <v>years</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3.4022442468406619E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-2.2744718824275088E-3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="str">
+        <v>km</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3.4459486160135305E-2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-6.9130652896487732E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-6.1120068118691182E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="str">
+        <v>rating</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-8.6731440557269765E-2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5.4154116407921296E-2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4.190600252310818E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>-5.058260500285694E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="str">
+        <v>condition</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-3.1929288143658953E-2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3.5774676202689419E-2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.10019693070794437</v>
+      </c>
+      <c r="E9" s="2">
+        <v>7.2383801800140872E-4</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-2.0550899007548876E-2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="str">
+        <v>top speed</v>
+      </c>
+      <c r="B10" s="2">
+        <v>-4.0035875060534284E-2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4.7185835511976214E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.2653031303721612E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>9.1874979913544891E-3</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-7.337436168976634E-2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>-1.7786817653711096E-2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="str">
+        <v>current price</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.2000396399869685</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.30440019707344251</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5.5598394564157598E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>-0.93673459874416332</v>
+      </c>
+      <c r="F11" s="3">
+        <v>4.1296095055148849E-2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>9.5762504244463517E-2</v>
+      </c>
+      <c r="H11" s="3">
+        <v>-9.1654342150300182E-3</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B4:I11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFC00000"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -14292,12 +14735,491 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6C0DB1-B264-4F6B-8BC4-AFC1F0345D75}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="142" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.99770218975212577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.99540965943618676</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.99534822084355457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>8615.3497259692322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2">
+        <v>8417913432237.5527</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1202559061748.2219</v>
+      </c>
+      <c r="E12" s="2">
+        <v>16201.700214611921</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2">
+        <v>523</v>
+      </c>
+      <c r="C13" s="2">
+        <v>38819283221.096497</v>
+      </c>
+      <c r="D13" s="2">
+        <v>74224250.900758117</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3">
+        <v>530</v>
+      </c>
+      <c r="C14" s="3">
+        <v>8456732715458.6494</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2">
+        <v>-15611.729548756959</v>
+      </c>
+      <c r="C17" s="2">
+        <v>7472.6007592341257</v>
+      </c>
+      <c r="D17" s="2">
+        <v>-2.0891962586740713</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3.7172784931906025E-2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>-30291.730055768359</v>
+      </c>
+      <c r="G17" s="2">
+        <v>-931.72904174555879</v>
+      </c>
+      <c r="H17" s="2">
+        <v>-30291.730055768359</v>
+      </c>
+      <c r="I17" s="2">
+        <v>-931.72904174555879</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.50421964125893615</v>
+      </c>
+      <c r="C18" s="2">
+        <v>6.5480256943657661E-3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>77.003308293794689</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.6029235616213614E-287</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.4913559779092746</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.51708330460859775</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.4913559779092746</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.51708330460859775</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.50251257489740553</v>
+      </c>
+      <c r="C19" s="2">
+        <v>6.5148390849275083E-3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>77.133535970213003</v>
+      </c>
+      <c r="E19" s="2">
+        <v>7.1138936782273906E-288</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.48971410698091061</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.5153110428139005</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.48971410698091061</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.5153110428139005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2">
+        <v>-1347.7976699974411</v>
+      </c>
+      <c r="C20" s="2">
+        <v>217.99664867174582</v>
+      </c>
+      <c r="D20" s="2">
+        <v>-6.1826531655856911</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1.2706765491976579E-9</v>
+      </c>
+      <c r="F20" s="2">
+        <v>-1776.0543126493903</v>
+      </c>
+      <c r="G20" s="2">
+        <v>-919.54102734549167</v>
+      </c>
+      <c r="H20" s="2">
+        <v>-1776.0543126493903</v>
+      </c>
+      <c r="I20" s="2">
+        <v>-919.54102734549167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="2">
+        <v>-3.9998659296350993</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1.2822395093422511E-2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>-311.94374377739348</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>-4.0250556557475159</v>
+      </c>
+      <c r="G21" s="2">
+        <v>-3.9746762035226828</v>
+      </c>
+      <c r="H21" s="2">
+        <v>-4.0250556557475159</v>
+      </c>
+      <c r="I21" s="2">
+        <v>-3.9746762035226828</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2">
+        <v>404.2377678607466</v>
+      </c>
+      <c r="C22" s="2">
+        <v>267.31863703886228</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1.5121944819806159</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.13108838861463246</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-120.91242464951057</v>
+      </c>
+      <c r="G22" s="2">
+        <v>929.38796037100383</v>
+      </c>
+      <c r="H22" s="2">
+        <v>-120.91242464951057</v>
+      </c>
+      <c r="I22" s="2">
+        <v>929.38796037100383</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4448.2273820428218</v>
+      </c>
+      <c r="C23" s="2">
+        <v>136.14875723774458</v>
+      </c>
+      <c r="D23" s="2">
+        <v>32.67181774032116</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2.0870650926579051E-128</v>
+      </c>
+      <c r="F23" s="2">
+        <v>4180.761758001654</v>
+      </c>
+      <c r="G23" s="2">
+        <v>4715.6930060839895</v>
+      </c>
+      <c r="H23" s="2">
+        <v>4180.761758001654</v>
+      </c>
+      <c r="I23" s="2">
+        <v>4715.6930060839895</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.17405705732263022</v>
+      </c>
+      <c r="C24" s="3">
+        <v>19.707284963337599</v>
+      </c>
+      <c r="D24" s="3">
+        <v>8.8321175467060455E-3</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.9929564492637597</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-38.541105517917785</v>
+      </c>
+      <c r="G24" s="3">
+        <v>38.889219632563041</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-38.541105517917785</v>
+      </c>
+      <c r="I24" s="3">
+        <v>38.889219632563041</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="8">
+        <v>20000</v>
+      </c>
+      <c r="B37" s="8">
+        <v>54300</v>
+      </c>
+      <c r="C37" s="8">
+        <v>5</v>
+      </c>
+      <c r="D37" s="8">
+        <v>23459</v>
+      </c>
+      <c r="E37" s="8">
+        <v>2</v>
+      </c>
+      <c r="F37" s="8">
+        <v>3</v>
+      </c>
+      <c r="G37" s="8">
+        <v>150</v>
+      </c>
+      <c r="H37">
+        <f>B17+B18*A37+B19*B37+B20*C37+B21*D37+B22*E37+B23*F37+B24*G37</f>
+        <v>-64633.480859497759</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/module_2/Lab_17_Regression-in-Excel/Task3_data.xlsx
+++ b/module_2/Lab_17_Regression-in-Excel/Task3_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tinym/Documents/IronHack/DAFT_1022/module_2/Lab_17_Regression-in-Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D13815-2C3F-BB40-9348-D27CC455D3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F79DC7-C66F-294A-B66B-BB65C66D48DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{CFF555FD-70FF-4490-9EA0-5ECB52521068}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>on road old</t>
   </si>
@@ -175,12 +175,6 @@
     <t>Upper 95,0%</t>
   </si>
   <si>
-    <t>Adjusted R-squared is a modified version of R-squared that has been adjusted for the number of predictors in the model.</t>
-  </si>
-  <si>
-    <t>The adjusted R-squared increases when the new term improves the model more than would be expected by chance. It decreases when a predictor improves the model by less than expected.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Typically, the adjusted R-squared is positive, not negative. It is always lower than the R-squared.</t>
   </si>
   <si>
@@ -200,7 +194,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,12 +209,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF111111"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -275,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -288,7 +276,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764876B3-9D0B-4188-8A5C-3835209070E5}">
   <dimension ref="A1:H532"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A503" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView view="pageBreakPreview" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14735,10 +14722,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6C0DB1-B264-4F6B-8BC4-AFC1F0345D75}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="142" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15136,34 +15123,24 @@
         <v>38.889219632563041</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+    <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
+    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -15189,34 +15166,61 @@
         <v>6</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="8">
+      <c r="A37" s="7">
         <v>20000</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="7">
         <v>54300</v>
       </c>
-      <c r="C37" s="8">
-        <v>5</v>
-      </c>
-      <c r="D37" s="8">
+      <c r="C37" s="7">
+        <v>5</v>
+      </c>
+      <c r="D37" s="7">
         <v>23459</v>
       </c>
-      <c r="E37" s="8">
-        <v>2</v>
-      </c>
-      <c r="F37" s="8">
-        <v>3</v>
-      </c>
-      <c r="G37" s="8">
+      <c r="E37" s="7">
+        <v>2</v>
+      </c>
+      <c r="F37" s="7">
+        <v>3</v>
+      </c>
+      <c r="G37" s="7">
         <v>150</v>
       </c>
       <c r="H37">
-        <f>B17+B18*A37+B19*B37+B20*C37+B21*D37+B22*E37+B23*F37+B24*G37</f>
+        <f>B$17+B$18*A37+B$19*B37+B$20*C37+B$21*D37+B$22*E37+B$23*F37+B$24*G37</f>
         <v>-64633.480859497759</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>536806</v>
+      </c>
+      <c r="B38">
+        <v>725621</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>133466</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>161</v>
+      </c>
+      <c r="H38">
+        <f>B$17+B$18*A38+B$19*B38+B$20*C38+B$21*D38+B$22*E38+B$23*F38+B$24*G38</f>
+        <v>92342.006153604962</v>
       </c>
     </row>
   </sheetData>
